--- a/biology/Médecine/Giovanni_Buzzacchi/Giovanni_Buzzacchi.xlsx
+++ b/biology/Médecine/Giovanni_Buzzacchi/Giovanni_Buzzacchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Benedetto Buzzacchi (né à Medole le 15 octobre 1836 et mort dans la même ville le 21 janvier 1900) est un patriote et un médecin italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Buzzacchi est né dans une famille aisée, il suspend ses études de médecine de l'Université de Pavie, avec son compatriote et ami Pietro Scaratti pour participer à la l'expédition des Mille au cours de laquelle il combat à Calatafimi, Palerme et Milazzo, intervenant aussi comme médecin faisant preuve d'une grande habileté chirurgicale.
 Il rentre chez lui et termine ses études et se consacre à la profession de médecin jusqu'à ce que  Giuseppe Garibaldi l'appelle, en 1866, comme médecin personnel et coordinateur du service chirurgical du corps des volontaires italiens lors de la campagne dans le Trentin lors de la Troisième guerre d'indépendance.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(it) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en italien intitulé « Giovanni Buzzacchi » (voir la liste des auteurs).
  Portail de la médecine   Portail du Risorgimento   Portail du XIXe siècle   Portail de l’Italie                  </t>
